--- a/Excel/PlayerLevelConfig.xlsx
+++ b/Excel/PlayerLevelConfig.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7AD02D-8CE5-49E9-B7CB-9E485B76C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD246C9-2988-4965-925D-EB87E93AB438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="1140" windowWidth="20880" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -126,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,6 +124,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,17 +433,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="D30:D35 D6:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="21.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -721,6 +712,54 @@
         <v>30</v>
       </c>
       <c r="D35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="7">
         <v>1</v>
       </c>
     </row>
